--- a/Resource/excel/table/K-框架-时间配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-时间配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1135,7 +1135,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
